--- a/import_upi.xlsx
+++ b/import_upi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pixeltruth-my.sharepoint.com/personal/shashank_sharma_pixeltruth_com/Documents/ML_GUI_Projects/unique_upiId_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{AD05C887-952D-4140-8E7E-D5293F2E01CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18FE044C-C291-43DA-ABED-3700B13FD997}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{AD05C887-952D-4140-8E7E-D5293F2E01CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{204EE0F1-9E04-45F8-8BC7-5B96F9A50055}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADD1B947-3D4E-42D6-9253-B4BC923C01DD}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>shrichinmoyboruah.84038440@sbi</t>
   </si>
   <si>
-    <t>InsertDate</t>
+    <t>Inserted_date</t>
   </si>
 </sst>
 </file>
